--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73042391-F10A-42F2-926A-4E235AFFC1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,233 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i_max = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">j_max = </t>
+  </si>
+  <si>
+    <t>folder =</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>file =</t>
+  </si>
+  <si>
+    <t>Maximum number of j loops</t>
+  </si>
+  <si>
+    <t>Maximum number of i loops</t>
+  </si>
+  <si>
+    <t>d =</t>
+  </si>
+  <si>
+    <t>Diameter of pod (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_p = </t>
+  </si>
+  <si>
+    <t>Mass of planet (kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m = </t>
+  </si>
+  <si>
+    <t>Mass of pod and contents (kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho = </t>
+  </si>
+  <si>
+    <t>Atmospheric density (kg/m^3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y_p = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G_p = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parachute = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_o = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_o = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_num = </t>
+  </si>
+  <si>
+    <t>Square root of faces of sphere</t>
+  </si>
+  <si>
+    <t>Area of parachute (m^2)</t>
+  </si>
+  <si>
+    <t>Mass of parachute (kg)</t>
+  </si>
+  <si>
+    <t>True/false for existence of parachute</t>
+  </si>
+  <si>
+    <t>Modulus of Rigidity of pod shell (gf/mm^2)</t>
+  </si>
+  <si>
+    <t>Young’s Modulus of pod shell (gf/mm^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u_i = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_max = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_min = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F_ max = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F_min = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F_r_max = </t>
+  </si>
+  <si>
+    <t>F_r_min =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_max = </t>
+  </si>
+  <si>
+    <t>K_min =</t>
+  </si>
+  <si>
+    <t>T_c_max =</t>
+  </si>
+  <si>
+    <t>T_c_min =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G_l_max = </t>
+  </si>
+  <si>
+    <t>G_l_min =</t>
+  </si>
+  <si>
+    <t>T_g_max =</t>
+  </si>
+  <si>
+    <t>T_g_min =</t>
+  </si>
+  <si>
+    <t>Y_l_max =</t>
+  </si>
+  <si>
+    <t>Y_l_min =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain = </t>
+  </si>
+  <si>
+    <t>Horizontal width of considered terrain (m)</t>
+  </si>
+  <si>
+    <t>Maximum value of terrain surface (m)</t>
+  </si>
+  <si>
+    <t>Minimum value of terrain surface (m)</t>
+  </si>
+  <si>
+    <t>Maximum value of Coefficient of Friction between pod and surface</t>
+  </si>
+  <si>
+    <t>Minimum value of Coefficient of Friction between pod and surface</t>
+  </si>
+  <si>
+    <t>Maximum value of Coefficient of Rolling Friction between pod and surface</t>
+  </si>
+  <si>
+    <t>Minimum value of Coefficient of Rolling Friction between pod and surface</t>
+  </si>
+  <si>
+    <t>Maximum value of Coefficient of Restitution between pod and surface</t>
+  </si>
+  <si>
+    <t>Minimum value of Coefficient of Restitution between pod and surface</t>
+  </si>
+  <si>
+    <t>Maximum value of thermal conductivity between pod and surface (W/mK)</t>
+  </si>
+  <si>
+    <t>Minimum value of thermal conductivity between pod and surface (W/mK)</t>
+  </si>
+  <si>
+    <t>Maximum value of Modulus of Rigidity of surface (gf/mm^2)</t>
+  </si>
+  <si>
+    <t>Minimum value of Modulus of Rigidity of surface (gf/mm^2)</t>
+  </si>
+  <si>
+    <t>Maximum value of temperature of surface (K)</t>
+  </si>
+  <si>
+    <t>Minimum value of temperature of surface (K)</t>
+  </si>
+  <si>
+    <t>Maximum value of Young's Modulus of surface (gf/mm^2)</t>
+  </si>
+  <si>
+    <t>Minimum value of Young's Modulus of surface (gf/mm^2)</t>
+  </si>
+  <si>
+    <t>Vector defining initial velocity of pod (m/s) [u_i(1,3) being altitude above L_min]</t>
+  </si>
+  <si>
+    <t>5.972*10^24</t>
+  </si>
+  <si>
+    <t>[0,0,1000000;0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_o = </t>
+  </si>
+  <si>
+    <t>Time of parachute opening on supply pod drop (s)</t>
+  </si>
+  <si>
+    <t>'Empty'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_A_int = </t>
+  </si>
+  <si>
+    <t>Intervals of differences in atmospheric/gravity conditions for trajectory (s)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +258,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +303,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BDC23125-5662-449E-AB6C-355338C5F832}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +614,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.1328125" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.9296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.06640625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6371000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C37" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73042391-F10A-42F2-926A-4E235AFFC1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDDF744-FE98-42E3-9BE0-4575CFE5CD74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>5.972*10^24</t>
   </si>
   <si>
-    <t>[0,0,1000000;0,0,0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">t_o = </t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Intervals of differences in atmospheric/gravity conditions for trajectory (s)</t>
+  </si>
+  <si>
+    <t>[-50,0,1000000;-0,50,50]</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -952,10 +952,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="9">
         <v>400</v>
@@ -979,18 +979,18 @@
         <v>30</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDDF744-FE98-42E3-9BE0-4575CFE5CD74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2203AA7A-DEE2-46C6-A7EB-D002981B9B2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Variables</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>[-50,0,1000000;-0,50,50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_step = </t>
+  </si>
+  <si>
+    <t>Intervals of steps of pod search along trajectory (s)</t>
   </si>
 </sst>
 </file>
@@ -617,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -993,6 +999,14 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C37" s="10"/>
     </row>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2203AA7A-DEE2-46C6-A7EB-D002981B9B2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110C892C-586E-4A22-84B2-93DF56AFD8F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Variables</t>
   </si>
@@ -249,7 +249,19 @@
     <t xml:space="preserve">t_step = </t>
   </si>
   <si>
-    <t>Intervals of steps of pod search along trajectory (s)</t>
+    <t xml:space="preserve">t_stride = </t>
+  </si>
+  <si>
+    <t>Smallest interval of steps of pod search along trajectory (s)</t>
+  </si>
+  <si>
+    <t>Largest interval of steps of pod search along trajectory (s)</t>
+  </si>
+  <si>
+    <t>Interval of steps of pod intersection search along trajectory (s)</t>
+  </si>
+  <si>
+    <t>t_int_step =</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,7 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -642,10 +653,10 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
@@ -685,7 +696,9 @@
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>6380000</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
@@ -707,7 +720,9 @@
       <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>6374993</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
@@ -964,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="D32" s="9">
-        <v>400</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -1001,14 +1016,39 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D36" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C37" s="10"/>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110C892C-586E-4A22-84B2-93DF56AFD8F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B59FF9-8E45-4003-B0AC-58B3A676145D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Variables</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>t_int_step =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bi_Int = </t>
+  </si>
+  <si>
+    <t>Interval of interpolation between values of heightmap</t>
   </si>
 </sst>
 </file>
@@ -634,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1048,7 +1054,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B59FF9-8E45-4003-B0AC-58B3A676145D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66763AAD-F5A1-4050-9CBF-F052A779D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Variables</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Interval of interpolation between values of heightmap</t>
+  </si>
+  <si>
+    <t>T_i =</t>
+  </si>
+  <si>
+    <t>Initial temperature of pod (K)</t>
   </si>
 </sst>
 </file>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1061,6 +1067,14 @@
         <v>79</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66763AAD-F5A1-4050-9CBF-F052A779D08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F202905-60DF-4AC6-A482-A7940694BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Variables</t>
   </si>
@@ -274,6 +274,24 @@
   </si>
   <si>
     <t>Initial temperature of pod (K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_H = </t>
+  </si>
+  <si>
+    <t>Stiffness of pod shell (N/m^1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T = </t>
+  </si>
+  <si>
+    <t>Length of time segments (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_m_min = </t>
+  </si>
+  <si>
+    <t>Minimum value of perpendicular vector (m/s)</t>
   </si>
 </sst>
 </file>
@@ -644,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1075,6 +1093,30 @@
         <v>81</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F202905-60DF-4AC6-A482-A7940694BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8204C-12D3-4C14-9D2E-1111B2C20A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">i_max = </t>
   </si>
@@ -126,18 +117,9 @@
     <t xml:space="preserve">L_min = </t>
   </si>
   <si>
-    <t xml:space="preserve">F_ max = </t>
-  </si>
-  <si>
     <t xml:space="preserve">F_min = </t>
   </si>
   <si>
-    <t xml:space="preserve">F_r_max = </t>
-  </si>
-  <si>
-    <t>F_r_min =</t>
-  </si>
-  <si>
     <t xml:space="preserve">K_max = </t>
   </si>
   <si>
@@ -168,9 +150,6 @@
     <t>Y_l_min =</t>
   </si>
   <si>
-    <t xml:space="preserve">domain = </t>
-  </si>
-  <si>
     <t>Horizontal width of considered terrain (m)</t>
   </si>
   <si>
@@ -180,18 +159,6 @@
     <t>Minimum value of terrain surface (m)</t>
   </si>
   <si>
-    <t>Maximum value of Coefficient of Friction between pod and surface</t>
-  </si>
-  <si>
-    <t>Minimum value of Coefficient of Friction between pod and surface</t>
-  </si>
-  <si>
-    <t>Maximum value of Coefficient of Rolling Friction between pod and surface</t>
-  </si>
-  <si>
-    <t>Minimum value of Coefficient of Rolling Friction between pod and surface</t>
-  </si>
-  <si>
     <t>Maximum value of Coefficient of Restitution between pod and surface</t>
   </si>
   <si>
@@ -225,27 +192,18 @@
     <t>Vector defining initial velocity of pod (m/s) [u_i(1,3) being altitude above L_min]</t>
   </si>
   <si>
-    <t>5.972*10^24</t>
-  </si>
-  <si>
     <t xml:space="preserve">t_o = </t>
   </si>
   <si>
     <t>Time of parachute opening on supply pod drop (s)</t>
   </si>
   <si>
-    <t>'Empty'</t>
-  </si>
-  <si>
     <t xml:space="preserve">t_A_int = </t>
   </si>
   <si>
     <t>Intervals of differences in atmospheric/gravity conditions for trajectory (s)</t>
   </si>
   <si>
-    <t>[-50,0,1000000;-0,50,50]</t>
-  </si>
-  <si>
     <t xml:space="preserve">t_step = </t>
   </si>
   <si>
@@ -292,22 +250,152 @@
   </si>
   <si>
     <t>Minimum value of perpendicular vector (m/s)</t>
+  </si>
+  <si>
+    <t>Minimum value of Coefficient of Kinetic Friction between pod and surface</t>
+  </si>
+  <si>
+    <t>Maximum value of Coefficient of Kinetic Friction between pod and surface</t>
+  </si>
+  <si>
+    <t>Maximum service temperature of pod shell (K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_max = </t>
+  </si>
+  <si>
+    <t>Maximum temperature differential of pod shell (K/s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaT = </t>
+  </si>
+  <si>
+    <t>Maximum deformation of thickness of pod shell inward (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_shell = </t>
+  </si>
+  <si>
+    <t>Yield strength of pod shell (Pa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_l = </t>
+  </si>
+  <si>
+    <t>Fracture toughness of pod shell (MPa m^0.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_c = </t>
+  </si>
+  <si>
+    <t>Maximum force withstood by pod shell (N/m^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_max = </t>
+  </si>
+  <si>
+    <t>Tensile strength of pod shell (Pa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F_tu = </t>
+  </si>
+  <si>
+    <t>Maximum force withstood by pod contents (N/m^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI_max_c = </t>
+  </si>
+  <si>
+    <t>Maximum service temperature of pod contents (K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_max_c = </t>
+  </si>
+  <si>
+    <t>Maximum angular acceleration of contents (rad/s)</t>
+  </si>
+  <si>
+    <t>5.972 * 10^24</t>
+  </si>
+  <si>
+    <t>omega_max_c =</t>
+  </si>
+  <si>
+    <t>'Example'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F_max = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_min = </t>
+  </si>
+  <si>
+    <t>Minimum distance of collision for points along pod (m)</t>
+  </si>
+  <si>
+    <t>Vector defining initial body rates of pod (rad/s) = [x, y, z; x, y, z]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q_i = </t>
+  </si>
+  <si>
+    <t>derivative_min =</t>
+  </si>
+  <si>
+    <t>Minimum value of surface derivative (m/m)</t>
+  </si>
+  <si>
+    <t>I =</t>
+  </si>
+  <si>
+    <t>Moment of inertia of pod (kg m^2)</t>
+  </si>
+  <si>
+    <t>h_C =</t>
+  </si>
+  <si>
+    <t>Specific Heat capacity of pod (J/K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaT_c = </t>
+  </si>
+  <si>
+    <t>Maximum temperature differential pod contents (K/s)</t>
+  </si>
+  <si>
+    <t>v_min  =</t>
+  </si>
+  <si>
+    <t>Minimum considered value of velocity (m/s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain = </t>
+  </si>
+  <si>
+    <t>[0.011,1,1;2.825,0,0]</t>
+  </si>
+  <si>
+    <t>[0.011,1,1;0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_min = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_edge = </t>
+  </si>
+  <si>
+    <t>Minimum value of velocity to be considered above the surface and off an edge (m)</t>
+  </si>
+  <si>
+    <t>Minimum value of velocity to be considered above the surface (m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -327,19 +415,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,20 +453,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,11 +471,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,465 +770,671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="B1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.1328125" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.9296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.06640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.06640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6371070.5269999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6371070.0269999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.8175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4180836.47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4180836.47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1706463.88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1706463.88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="D19" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="5">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.31850000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="5">
+        <v>145000000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3950000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3950000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B51" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="5">
+        <v>9.9999999999999994E-12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1.0820506666666599E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B57" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B58" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.31850000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B59" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6380000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7">
-        <v>6371000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6374993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>87</v>
-      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B64" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8204C-12D3-4C14-9D2E-1111B2C20A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB52A64F-3201-42AC-9201-D8E1E7692092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="B1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB52A64F-3201-42AC-9201-D8E1E7692092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F6397-E003-43EA-AABC-4DE54CA32D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="B1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F6397-E003-43EA-AABC-4DE54CA32D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00BCC45-169D-4422-AC38-5811422EF7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="B1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Interactive Resource Impact Simulation\Versions\IRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6F72D-8D6E-4762-8B48-62DBF55393C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842145CF-9271-4E7B-BEBD-C81C3D2B5234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,9 +510,6 @@
     <t>[1, 1, 7000; 5375, 5375, 0]</t>
   </si>
   <si>
-    <t>https://film.iwmcollections.org.uk/record/4534/media_id/5202</t>
-  </si>
-  <si>
     <t>[600, 1, 30.48; 0, 52.359877499999996, 0]</t>
   </si>
   <si>
@@ -520,6 +517,9 @@
   </si>
   <si>
     <t>'HighballTrial'</t>
+  </si>
+  <si>
+    <t>https://www.iwm.org.uk/collections/item/object/1060003335</t>
   </si>
 </sst>
 </file>
@@ -3874,8 +3874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F035BF-B48F-4F2B-B2BE-5244650FE146}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4639,7 +4639,7 @@
         <v>114</v>
       </c>
       <c r="C58" s="5">
-        <v>0.31850000000000001</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D58" s="8"/>
       <c r="F58" s="8"/>
@@ -4723,7 +4723,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5796,13 +5796,13 @@
         <v>114</v>
       </c>
       <c r="C58" s="5">
-        <v>2.8500000000000001E-2</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E58" s="5">
-        <v>2.8500000000000001E-2</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F58" s="8"/>
       <c r="H58" s="8"/>
@@ -5893,7 +5893,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6968,13 +6968,13 @@
         <v>114</v>
       </c>
       <c r="C58" s="5">
-        <v>2.86E-2</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E58" s="5">
-        <v>2.86E-2</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F58" s="8"/>
       <c r="H58" s="8"/>
@@ -7065,7 +7065,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9081,31 +9081,31 @@
         <v>114</v>
       </c>
       <c r="C58" s="5">
-        <v>0.02</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E58" s="5">
-        <v>0.02</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G58" s="5">
-        <v>0.02</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>114</v>
       </c>
       <c r="I58" s="5">
-        <v>0.02</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K58" s="5">
-        <v>0.02</v>
+        <v>1.0000000000000001E-9</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -9220,7 +9220,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10015,8 +10015,7 @@
         <v>114</v>
       </c>
       <c r="C58" s="5">
-        <f>2.3/2</f>
-        <v>1.1499999999999999</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D58" s="5"/>
       <c r="F58" s="8"/>
@@ -10097,8 +10096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75873CAC-5C97-4484-A7AF-AB88531E0E99}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B60" sqref="B1:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10140,7 +10139,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
@@ -10290,7 +10289,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="5">
-        <v>1.0000000000000001E-18</v>
+        <v>71380.100000000006</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="11"/>
@@ -10308,7 +10307,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>1.0000000000000001E-18</v>
+        <v>71380.100000000006</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="1"/>
@@ -10464,7 +10463,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="5">
-        <v>3569.00675</v>
+        <v>304150</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -10536,7 +10535,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -10572,7 +10571,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="5">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D34" s="5"/>
     </row>
@@ -10620,7 +10619,7 @@
         <v>69</v>
       </c>
       <c r="C38" s="5">
-        <v>31050000</v>
+        <v>3105000000</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -10632,7 +10631,7 @@
         <v>71</v>
       </c>
       <c r="C39" s="5">
-        <v>0.1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D39" s="5"/>
     </row>
@@ -10818,7 +10817,7 @@
         <v>102</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="5"/>
     </row>
@@ -10893,7 +10892,7 @@
         <v>114</v>
       </c>
       <c r="C58" s="5">
-        <v>0.58420000000000005</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="D58" s="5"/>
       <c r="F58" s="8"/>
@@ -10962,7 +10961,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
